--- a/src/test/resources/parser/disciplines.xlsx
+++ b/src/test/resources/parser/disciplines.xlsx
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
-  <si>
-    <t>ФАКУЛЬТЕТ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>Спеціальність</t>
   </si>
@@ -41,18 +38,12 @@
     <t>Курс</t>
   </si>
   <si>
-    <t>Освітній ступінь</t>
-  </si>
-  <si>
     <t>Назви навчальних  дисциплін</t>
   </si>
   <si>
     <t>Кількість кредитів ЄКТС</t>
   </si>
   <si>
-    <t>ЕІ</t>
-  </si>
-  <si>
     <t>ПЕРЕДДИПЛОМНА ПРАКТИКА</t>
   </si>
   <si>
@@ -60,9 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve">КОМПЛЕКСНИЙ ТРЕНІНГ </t>
-  </si>
-  <si>
-    <t>МАГ</t>
   </si>
   <si>
     <t>МАГ-МАЙНОР</t>
@@ -802,27 +790,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="81.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="185" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="185" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -830,745 +816,631 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>122</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>122</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>122</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="23" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="4">
-        <v>122</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="4">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="23" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
-        <v>122</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="23" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>122</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="46" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>122</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>122</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="46" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
-        <v>122</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="4">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>122</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>122</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>122</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>122</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>122</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>122</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4">
+      <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>122</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>122</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>122</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>122</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>122</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="23" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4">
-        <v>122</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="E16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>122</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>122</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4">
-        <v>4</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="F18" s="4">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
         <v>2</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="23" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>122</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4">
-        <v>7</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="4">
-        <v>4</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="23" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>122</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="I18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>122</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="23" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>122</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="4">
-        <v>9</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="D19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
         <v>2</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="23" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4">
-        <v>122</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="4">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="4">
-        <v>5</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="23" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4">
-        <v>122</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="4">
-        <v>11</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="4">
-        <v>5</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>2</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="23" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4">
-        <v>122</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="4">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="4">
-        <v>5</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <v>2</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="23" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4">
-        <v>122</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="4">
-        <v>13</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="4">
-        <v>5</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="23" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4">
-        <v>122</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="4">
-        <v>14</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="4">
-        <v>5</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>2</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="23" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="4">
-        <v>122</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="4">
-        <v>5</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="23" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4">
-        <v>122</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="4">
-        <v>5</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="23" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4">
-        <v>122</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="I19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="4">
-        <v>5</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4">
-        <v>2</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="23" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4">
-        <v>122</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="4">
-        <v>5</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4">
-        <v>2</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B6:C15 C16:C19 A1:D1 I1">
+  <conditionalFormatting sqref="A6:B15 B16:B19 G1 A1:B1">
     <cfRule type="cellIs" dxfId="16" priority="110" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
+  <conditionalFormatting sqref="C1">
     <cfRule type="cellIs" dxfId="15" priority="108" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5">
+  <conditionalFormatting sqref="A2:A5">
     <cfRule type="cellIs" dxfId="14" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B17">
+  <conditionalFormatting sqref="A16:A17">
     <cfRule type="cellIs" dxfId="13" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B19">
+  <conditionalFormatting sqref="A18:A19">
     <cfRule type="cellIs" dxfId="12" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="B2">
     <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+  <conditionalFormatting sqref="B3">
     <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="B4">
     <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="B5">
     <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="I8">
     <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>"Екзамен"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
+  <conditionalFormatting sqref="I7">
     <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"Екзамен"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="I9">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Екзамен"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
+  <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Екзамен"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Екзамен"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
+  <conditionalFormatting sqref="I5">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Екзамен"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Екзамен"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
+  <conditionalFormatting sqref="I10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Екзамен"</formula>
     </cfRule>

--- a/src/test/resources/parser/disciplines.xlsx
+++ b/src/test/resources/parser/disciplines.xlsx
@@ -793,7 +793,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/parser/disciplines.xlsx
+++ b/src/test/resources/parser/disciplines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>Спеціальність</t>
   </si>
@@ -113,15 +113,6 @@
     <t>Екзамен</t>
   </si>
   <si>
-    <t>Диф. залік</t>
-  </si>
-  <si>
-    <t>ЗВІТ</t>
-  </si>
-  <si>
-    <t>Дипломний проект</t>
-  </si>
-  <si>
     <t>МАГ1</t>
   </si>
   <si>
@@ -141,13 +132,16 @@
   </si>
   <si>
     <t>МАГ4</t>
+  </si>
+  <si>
+    <t>Залік</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,8 +179,15 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +198,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -250,7 +257,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -306,14 +313,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,9 +329,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -339,8 +342,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="57">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
@@ -368,6 +374,7 @@
     <cellStyle name="Гиперссылка" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
@@ -396,6 +403,7 @@
     <cellStyle name="Открывавшаяся гиперссылка" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="56" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -793,7 +801,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,554 +817,554 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="185" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="23" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>122</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="3">
+        <v>122</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>122</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>122</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>122</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>122</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>122</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>122</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>122</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>122</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>122</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>122</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>122</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>122</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>122</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>122</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>122</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>122</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>122</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="23" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>122</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="23" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>122</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="46" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>122</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>122</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="23" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>122</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="23" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>122</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="23" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>122</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="23" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>122</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="23" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>122</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="4">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="23" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>122</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="4">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="23" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>122</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="4">
-        <v>5</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="23" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>122</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="23" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>122</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4">
-        <v>14</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="23" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>122</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="4">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="23" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>122</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="4">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="23" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>122</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="4">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>2</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="23" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>122</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="4">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>2</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1405,46 +1413,6 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
-      <formula>"Екзамен"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>"Екзамен"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"Екзамен"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Екзамен"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Екзамен"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Екзамен"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Екзамен"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Екзамен"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
